--- a/Costco-Financial-Analysis.xlsx
+++ b/Costco-Financial-Analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28619"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2eb24c32fa552e2d/Data Analyst Path/Analyst Builder/Data Analytics/Projects/Financial Modeling Projects/Costco Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2eb24c32fa552e2d/Data Analyst Path/Analyst Builder/Data Analytics/Projects/Financial Modeling Projects/Costco Project/Costco_Financial_Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1736" documentId="8_{DD23497D-3EC1-4E45-BDF2-03D719928A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D058C96-0BDE-4346-81B6-4F8AE8F505AA}"/>
+  <xr:revisionPtr revIDLastSave="1739" documentId="8_{DD23497D-3EC1-4E45-BDF2-03D719928A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0FBEBB4-C8D3-4C1C-A04D-16F771C932AD}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{367F0AFE-EC4E-4E93-B0BA-BDB702BEF4B7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{367F0AFE-EC4E-4E93-B0BA-BDB702BEF4B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="6" r:id="rId1"/>
@@ -26,9 +26,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="69" r:id="rId8"/>
-    <pivotCache cacheId="73" r:id="rId9"/>
-    <pivotCache cacheId="86" r:id="rId10"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="1" r:id="rId9"/>
+    <pivotCache cacheId="2" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="185">
   <si>
     <t>Total revenue</t>
   </si>
@@ -562,18 +562,6 @@
   </si>
   <si>
     <t>Year</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
   </si>
   <si>
     <t>Summary Metrics</t>
@@ -636,8 +624,8 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$ &quot;#,##0_);_(&quot;$ &quot;\(#,##0\)"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$ &quot;#,##0.00_);_(&quot;$ &quot;\(#,##0.00\)"/>
-    <numFmt numFmtId="180" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -891,7 +879,7 @@
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -958,7 +946,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
@@ -1016,19 +1003,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="37" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -1038,16 +1021,16 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1056,10 +1039,10 @@
     <xf numFmtId="2" fontId="11" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="11" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1068,19 +1051,19 @@
     <xf numFmtId="10" fontId="11" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="39" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="39" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1089,19 +1072,19 @@
     <xf numFmtId="10" fontId="0" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1129,27 +1112,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="182" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="37" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1157,16 +1140,57 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="38">
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFE5E5E5"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE5E5E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE5E5E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE5E5E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE5E5E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE5E5E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -1200,133 +1224,22 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE5E5E5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE5E5E5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1346,7 +1259,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="180" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1366,27 +1279,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="180" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="180" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1415,68 +1308,14 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0_);\(#,##0\)"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="5" formatCode="#,##0_);\(#,##0\)"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
+      <numFmt numFmtId="5" formatCode="#,##0_);\(#,##0\)"/>
     </dxf>
     <dxf>
       <font>
@@ -1565,7 +1404,33 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="180" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -1595,7 +1460,39 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="180" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
@@ -1620,48 +1517,6 @@
           <color theme="4" tint="0.39997558519241921"/>
         </top>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1773,6 +1628,65 @@
           <color theme="4" tint="0.39997558519241921"/>
         </top>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE5E5E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE5E5E5"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3857,7 +3771,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[COSTCO FINANCIAL MODELING PROJECT.xlsx]Dashboard Info!revenue_source</c:name>
+    <c:name>[Costco-Financial-Analysis.xlsx]Dashboard Info!revenue_source</c:name>
     <c:fmtId val="12"/>
   </c:pivotSource>
   <c:chart>
@@ -5096,6 +5010,34 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="23"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="24"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -5462,7 +5404,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[COSTCO FINANCIAL MODELING PROJECT.xlsx]Dashboard Info!PivotTable23</c:name>
+    <c:name>[Costco-Financial-Analysis.xlsx]Dashboard Info!PivotTable23</c:name>
     <c:fmtId val="27"/>
   </c:pivotSource>
   <c:chart>
@@ -6060,7 +6002,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[COSTCO FINANCIAL MODELING PROJECT.xlsx]Dashboard Info!PivotTable28</c:name>
+    <c:name>[Costco-Financial-Analysis.xlsx]Dashboard Info!PivotTable28</c:name>
     <c:fmtId val="3"/>
   </c:pivotSource>
   <c:chart>
@@ -7008,7 +6950,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2022</c:v>
+                  <c:v>2024</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7165,296 +7107,6 @@
                 <c:formatCode>#,##0_);\(#,##0\)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>43519</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20647</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-B0D2-4A4D-9F5D-A947D69350C3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Dashboard Info'!$K$26:$K$27</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2023</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="bestFit"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Dashboard Info'!$I$28:$I$29</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Sum of TOTAL LIABILITIES</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sum of TOTAL EQUITY</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Dashboard Info'!$K$28:$K$29</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0_);\(#,##0\)</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>43936</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25058</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000017-B0D2-4A4D-9F5D-A947D69350C3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Dashboard Info'!$L$26:$L$27</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2024</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="bestFit"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Dashboard Info'!$I$28:$I$29</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Sum of TOTAL LIABILITIES</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sum of TOTAL EQUITY</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Dashboard Info'!$L$28:$L$29</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0_);\(#,##0\)</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
                   <c:v>46209</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -7465,7 +7117,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000018-B0D2-4A4D-9F5D-A947D69350C3}"/>
+              <c16:uniqueId val="{00000006-B0D2-4A4D-9F5D-A947D69350C3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11220,8 +10872,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="809625" y="7648575"/>
-          <a:ext cx="13211175" cy="2085975"/>
+          <a:off x="812524" y="7648575"/>
+          <a:ext cx="13193781" cy="2085975"/>
           <a:chOff x="809625" y="7648575"/>
           <a:chExt cx="13211175" cy="2085975"/>
         </a:xfrm>
@@ -11521,7 +11173,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="0" y="3964639"/>
-          <a:ext cx="5314950" cy="3505200"/>
+          <a:ext cx="5315364" cy="3505200"/>
           <a:chOff x="0" y="3867150"/>
           <a:chExt cx="4495800" cy="3505200"/>
         </a:xfrm>
@@ -11549,8 +11201,8 @@
           </a:graphicData>
         </a:graphic>
       </xdr:graphicFrame>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+        <mc:Choice Requires="a14">
           <xdr:graphicFrame macro="">
             <xdr:nvGraphicFramePr>
               <xdr:cNvPr id="33" name="Year 1">
@@ -11573,7 +11225,7 @@
             </a:graphic>
           </xdr:graphicFrame>
         </mc:Choice>
-        <mc:Fallback>
+        <mc:Fallback xmlns="">
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="0" name=""/>
@@ -11734,7 +11386,8 @@
                   </a:solidFill>
                   <a:latin typeface="Aptos Narrow"/>
                 </a:rPr>
-                <a:t>2.11</a:t>
+                <a:pPr/>
+                <a:t>1.96</a:t>
               </a:fld>
               <a:endParaRPr lang="en-US" sz="1400"/>
             </a:p>
@@ -11745,6 +11398,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11760,21 +11417,21 @@
         <n v="2022"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Net Sales ($M)" numFmtId="180">
+    <cacheField name="Net Sales ($M)" numFmtId="166">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="222730" maxValue="249625" count="3">
         <n v="249625"/>
         <n v="237710"/>
         <n v="222730"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Membership Fees ($M)" numFmtId="180">
+    <cacheField name="Membership Fees ($M)" numFmtId="166">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4224" maxValue="4828" count="3">
         <n v="4828"/>
         <n v="4580"/>
         <n v="4224"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Total Revenue ($M)" numFmtId="180">
+    <cacheField name="Total Revenue ($M)" numFmtId="166">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="226954" maxValue="254453"/>
     </cacheField>
   </cacheFields>
@@ -11799,16 +11456,16 @@
         <s v="2022"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Total Revenue ($M)" numFmtId="180">
+    <cacheField name="Total Revenue ($M)" numFmtId="166">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="226954" maxValue="254453"/>
     </cacheField>
-    <cacheField name="Gross Profit ($M)" numFmtId="180">
+    <cacheField name="Gross Profit ($M)" numFmtId="166">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="27572" maxValue="32095"/>
     </cacheField>
-    <cacheField name="Operating Income ($M)" numFmtId="180">
+    <cacheField name="Operating Income ($M)" numFmtId="166">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="7793" maxValue="9285"/>
     </cacheField>
-    <cacheField name="Net Income ($M)" numFmtId="180">
+    <cacheField name="Net Income ($M)" numFmtId="166">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5915" maxValue="7367"/>
     </cacheField>
     <cacheField name="Current Ratio" numFmtId="43">
@@ -11942,13 +11599,170 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7CE88A2D-9A64-43CE-A24D-7F18BB0547ED}" name="PivotTable27" cacheId="86" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" rowHeaderCaption="Year">
-  <location ref="N32:O35" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7F1634EC-8B79-4187-A76A-9FC62120D281}" name="revenue_source" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+  <location ref="A37:B41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
       <items count="4">
         <item x="2"/>
         <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="166" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="166" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="166" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Membership Fees (in Millions)" fld="2" baseField="0" baseItem="0" numFmtId="166"/>
+  </dataFields>
+  <chartFormats count="8">
+    <chartFormat chart="12" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="13" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="14" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7CE88A2D-9A64-43CE-A24D-7F18BB0547ED}" name="PivotTable27" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" rowHeaderCaption="Year">
+  <location ref="N32:O33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item h="1" x="2"/>
+        <item h="1" x="1"/>
         <item x="0"/>
         <item t="default"/>
       </items>
@@ -11960,13 +11774,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
+  <rowItems count="1">
     <i>
       <x v="2"/>
     </i>
@@ -11978,17 +11786,17 @@
     <dataField name="Debt-to-Equity Ratio" fld="3" baseField="0" baseItem="0" numFmtId="2"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="16">
+    <format dxfId="37">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="35">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -12004,14 +11812,14 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3733CCC9-B526-44D2-A624-1B99C7F8E446}" name="PivotTable28" cacheId="86" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Year">
-  <location ref="I26:L29" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3733CCC9-B526-44D2-A624-1B99C7F8E446}" name="PivotTable28" cacheId="2" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Year">
+  <location ref="I26:J29" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisCol" showAll="0">
       <items count="4">
-        <item x="2"/>
-        <item x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="1"/>
         <item x="0"/>
         <item t="default"/>
       </items>
@@ -12034,13 +11842,7 @@
   <colFields count="1">
     <field x="0"/>
   </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
+  <colItems count="1">
     <i>
       <x v="2"/>
     </i>
@@ -12189,8 +11991,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7B09A331-2DD0-4A54-8D66-4571E721F454}" name="PivotTable24" cacheId="73" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7B09A331-2DD0-4A54-8D66-4571E721F454}" name="PivotTable24" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
   <location ref="L14:M18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -12201,10 +12003,10 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" numFmtId="180" showAll="0"/>
-    <pivotField numFmtId="180" showAll="0"/>
-    <pivotField numFmtId="180" showAll="0"/>
-    <pivotField numFmtId="180" showAll="0"/>
+    <pivotField dataField="1" numFmtId="166" showAll="0"/>
+    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField numFmtId="166" showAll="0"/>
     <pivotField numFmtId="43" showAll="0"/>
     <pivotField numFmtId="43" showAll="0"/>
     <pivotField numFmtId="10" showAll="0"/>
@@ -12244,8 +12046,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{14193B1E-6AE2-434D-82D4-01EB12A2A7AC}" name="PivotTable23" cacheId="69" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="29">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{14193B1E-6AE2-434D-82D4-01EB12A2A7AC}" name="PivotTable23" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="29">
   <location ref="A53:B57" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -12256,7 +12058,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" numFmtId="180" showAll="0">
+    <pivotField dataField="1" numFmtId="166" showAll="0">
       <items count="4">
         <item x="2"/>
         <item x="1"/>
@@ -12264,7 +12066,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="180" showAll="0">
+    <pivotField numFmtId="166" showAll="0">
       <items count="4">
         <item x="2"/>
         <item x="1"/>
@@ -12272,7 +12074,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="180" showAll="0"/>
+    <pivotField numFmtId="166" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
@@ -12295,143 +12097,10 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Net Sales ($M)" fld="1" baseField="0" baseItem="0" numFmtId="180"/>
+    <dataField name="Sum of Net Sales ($M)" fld="1" baseField="0" baseItem="0" numFmtId="166"/>
   </dataFields>
   <chartFormats count="1">
     <chartFormat chart="27" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7F1634EC-8B79-4187-A76A-9FC62120D281}" name="revenue_source" cacheId="69" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
-  <location ref="A37:B41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="180" showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="180" showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="180" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Membership Fees (in Millions)" fld="2" baseField="0" baseItem="0" numFmtId="180"/>
-  </dataFields>
-  <chartFormats count="6">
-    <chartFormat chart="12" format="12" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="12" format="13" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="12" format="14" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="12" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="12" format="16" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="12" format="17">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -12462,8 +12131,8 @@
   <data>
     <tabular pivotCacheId="1385248995">
       <items count="3">
-        <i x="2" s="1"/>
-        <i x="1" s="1"/>
+        <i x="2"/>
+        <i x="1"/>
         <i x="0" s="1"/>
       </items>
     </tabular>
@@ -12478,30 +12147,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{0079E349-8056-4398-ACFC-602B9243D3B8}" name="financial_ratios" displayName="financial_ratios" ref="A2:D13" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" tableBorderDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{0079E349-8056-4398-ACFC-602B9243D3B8}" name="financial_ratios" displayName="financial_ratios" ref="A2:D13" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33" tableBorderDxfId="32">
   <autoFilter ref="A2:D13" xr:uid="{0079E349-8056-4398-ACFC-602B9243D3B8}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4784DFCE-52BE-49F7-BC8D-F281FB0208C5}" name="Year" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{CE363D31-B0A9-43F2-8C7B-C15CADFE1A87}" name="Sep. 01, 2024" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{6E875EF3-D73F-485B-B317-C9E7368782F7}" name="Sep. 03, 2023" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{D3B73145-6EAA-4747-8F59-5A03140838DE}" name="Aug. 28, 2022" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{4784DFCE-52BE-49F7-BC8D-F281FB0208C5}" name="Year" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{CE363D31-B0A9-43F2-8C7B-C15CADFE1A87}" name="Sep. 01, 2024" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{6E875EF3-D73F-485B-B317-C9E7368782F7}" name="Sep. 03, 2023" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{D3B73145-6EAA-4747-8F59-5A03140838DE}" name="Aug. 28, 2022" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{92FD129E-2FDD-43C6-A990-DD1F05A3A830}" name="Table14" displayName="Table14" ref="A18:H21" tableBorderDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{92FD129E-2FDD-43C6-A990-DD1F05A3A830}" name="Table14" displayName="Table14" ref="A18:H21" tableBorderDxfId="27">
   <autoFilter ref="A18:H21" xr:uid="{92FD129E-2FDD-43C6-A990-DD1F05A3A830}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{60575B51-E6F4-428A-854E-061C213B23A1}" name="Year" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{2F3D1BD2-63B5-42BD-95A4-0EFEE44A4DD3}" name="Total Revenue ($M)" dataDxfId="32" totalsRowDxfId="27" dataCellStyle="Currency"/>
+    <tableColumn id="2" xr3:uid="{2F3D1BD2-63B5-42BD-95A4-0EFEE44A4DD3}" name="Total Revenue ($M)" dataDxfId="26" totalsRowDxfId="25" dataCellStyle="Currency"/>
     <tableColumn id="3" xr3:uid="{4432C105-13E5-4EA4-82D0-DD3417A021C7}" name="Gross Profit ($M)"/>
     <tableColumn id="4" xr3:uid="{657CBBD4-36E2-4FC5-8C75-A45696A31533}" name="Operating Income ($M)"/>
-    <tableColumn id="5" xr3:uid="{BA674214-5915-4BE3-832C-5F38912A4CD0}" name="Net Income ($M)" dataDxfId="31" totalsRowDxfId="28" dataCellStyle="Currency"/>
+    <tableColumn id="5" xr3:uid="{BA674214-5915-4BE3-832C-5F38912A4CD0}" name="Net Income ($M)" dataDxfId="24" totalsRowDxfId="23" dataCellStyle="Currency"/>
     <tableColumn id="6" xr3:uid="{6C6DBCB3-BB73-4B56-89C9-3A4DCEAAC87F}" name="Current Ratio"/>
     <tableColumn id="7" xr3:uid="{D4C17CFA-D845-4A23-99D4-3BF176554322}" name="Debt-to-Equity Ratio"/>
-    <tableColumn id="8" xr3:uid="{679C02AD-70B7-49A5-BEEE-E76FFF2608F5}" name="Net Profit Margin (%)" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="29" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{679C02AD-70B7-49A5-BEEE-E76FFF2608F5}" name="Net Profit Margin (%)" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="21" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -12514,8 +12183,8 @@
     <tableColumn id="1" xr3:uid="{99EC1745-0FE6-428F-B0E5-67869894B67F}" name="Year">
       <calculatedColumnFormula>A19</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A2E615A6-7F67-46B3-BC2E-E81CEF7B6163}" name="TOTAL LIABILITIES" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{3708808C-40E8-4CC2-A4E3-6CBDB2A2594F}" name="TOTAL EQUITY" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{A2E615A6-7F67-46B3-BC2E-E81CEF7B6163}" name="TOTAL LIABILITIES" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{3708808C-40E8-4CC2-A4E3-6CBDB2A2594F}" name="TOTAL EQUITY" dataDxfId="19"/>
     <tableColumn id="4" xr3:uid="{22EAE9F5-3837-4191-BB16-6B0A14FE7033}" name="D/E Ratio" dataDxfId="18">
       <calculatedColumnFormula>debt_to_equity_structure[[#This Row],[TOTAL LIABILITIES]]/debt_to_equity_structure[[#This Row],[TOTAL EQUITY]]</calculatedColumnFormula>
     </tableColumn>
@@ -12525,13 +12194,13 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{85BE5DAB-21B2-48C6-AE15-6AC3DACB724E}" name="Table16" displayName="Table16" ref="A32:D35" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" dataCellStyle="Currency">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{85BE5DAB-21B2-48C6-AE15-6AC3DACB724E}" name="Table16" displayName="Table16" ref="A32:D35" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" dataCellStyle="Currency">
   <autoFilter ref="A32:D35" xr:uid="{85BE5DAB-21B2-48C6-AE15-6AC3DACB724E}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4CC006F2-7D4D-475E-A8E2-D8C5305E3FC0}" name="Year" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{4B1D5E5D-4EF2-4B85-B7A8-A2F81E42E1A0}" name="Net Sales ($M)" dataDxfId="21" dataCellStyle="Currency"/>
-    <tableColumn id="3" xr3:uid="{9CA51103-9586-45EE-873E-487869CC506F}" name="Membership Fees ($M)" dataDxfId="20" dataCellStyle="Currency"/>
-    <tableColumn id="4" xr3:uid="{B83FD81C-D8D7-4C4A-912F-6992F0D5FAC8}" name="Total Revenue ($M)" dataDxfId="19" dataCellStyle="Currency">
+    <tableColumn id="1" xr3:uid="{4CC006F2-7D4D-475E-A8E2-D8C5305E3FC0}" name="Year" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{4B1D5E5D-4EF2-4B85-B7A8-A2F81E42E1A0}" name="Net Sales ($M)" dataDxfId="14" dataCellStyle="Currency"/>
+    <tableColumn id="3" xr3:uid="{9CA51103-9586-45EE-873E-487869CC506F}" name="Membership Fees ($M)" dataDxfId="13" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{B83FD81C-D8D7-4C4A-912F-6992F0D5FAC8}" name="Total Revenue ($M)" dataDxfId="12" dataCellStyle="Currency">
       <calculatedColumnFormula>SUM(B33:C33)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12861,46 +12530,46 @@
   </sheetPr>
   <dimension ref="P1:R6"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="90" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="90" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="31.85546875" style="90"/>
+    <col min="1" max="1" width="7.28515625" style="87" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="87" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="31.85546875" style="87"/>
   </cols>
   <sheetData>
     <row r="1" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
     </row>
     <row r="2" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="91"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
     </row>
     <row r="3" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="91"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="88"/>
     </row>
     <row r="4" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P4" s="92"/>
-      <c r="Q4" s="92"/>
-      <c r="R4" s="92"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="89"/>
+      <c r="R4" s="89"/>
     </row>
     <row r="5" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P5" s="92"/>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="92"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
     </row>
     <row r="6" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P6" s="93"/>
-      <c r="Q6" s="93"/>
-      <c r="R6" s="93"/>
+      <c r="P6" s="90"/>
+      <c r="Q6" s="90"/>
+      <c r="R6" s="90"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12926,293 +12595,295 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="7.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="26.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="27"/>
+    <col min="1" max="1" width="13.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23" style="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="7.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="57" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="59" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="64">
+      <c r="B3" s="61">
         <v>0.96565531242950597</v>
       </c>
-      <c r="C3" s="64">
+      <c r="C3" s="61">
         <v>1.0683679242473871</v>
       </c>
-      <c r="D3" s="65">
+      <c r="D3" s="62">
         <v>1.0218138633664604</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="66">
+      <c r="B4" s="63">
         <v>0.35605120685765845</v>
       </c>
-      <c r="C4" s="66">
+      <c r="C4" s="63">
         <v>0.47598487329899059</v>
       </c>
-      <c r="D4" s="67">
+      <c r="D4" s="64">
         <v>0.38889930620663793</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="68">
+      <c r="B5" s="65">
         <v>0.1261333134213391</v>
       </c>
-      <c r="C5" s="68">
+      <c r="C5" s="65">
         <v>0.12259688802674482</v>
       </c>
-      <c r="D5" s="69">
+      <c r="D5" s="66">
         <v>0.12148717361227385</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="68">
+      <c r="B6" s="65">
         <v>2.8952301603832536E-2</v>
       </c>
-      <c r="C6" s="68">
+      <c r="C6" s="65">
         <v>2.5968880267448098E-2</v>
       </c>
-      <c r="D6" s="69">
+      <c r="D6" s="66">
         <v>2.6062550120288693E-2</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="68">
+      <c r="B7" s="65">
         <v>0.1054975583909725</v>
       </c>
-      <c r="C7" s="68">
+      <c r="C7" s="65">
         <v>9.1196335913267826E-2</v>
       </c>
-      <c r="D7" s="69">
+      <c r="D7" s="66">
         <v>9.1076270922295297E-2</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="68">
+      <c r="B8" s="65">
         <v>0.31187029040724751</v>
       </c>
-      <c r="C8" s="68">
+      <c r="C8" s="65">
         <v>0.25109745390693589</v>
       </c>
-      <c r="D8" s="69">
+      <c r="D8" s="66">
         <v>0.28304354143459098</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="63" t="s">
-        <v>173</v>
-      </c>
-      <c r="B9" s="66">
+      <c r="A9" s="60" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" s="63">
         <v>1.9561849123698247</v>
       </c>
-      <c r="C9" s="66">
+      <c r="C9" s="63">
         <v>1.7533721765504031</v>
       </c>
-      <c r="D9" s="67">
+      <c r="D9" s="64">
         <v>2.1077638397830194</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="B10" s="66">
+      <c r="B10" s="63">
         <v>54.940828402366861</v>
       </c>
-      <c r="C10" s="66">
+      <c r="C10" s="63">
         <v>50.712499999999999</v>
       </c>
-      <c r="D10" s="67">
+      <c r="D10" s="64">
         <v>49.322784810126585</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="B11" s="70">
+      <c r="B11" s="67">
         <v>3.6438401283097765</v>
       </c>
-      <c r="C11" s="70">
+      <c r="C11" s="67">
         <v>3.5117546453314783</v>
       </c>
-      <c r="D11" s="71">
+      <c r="D11" s="68">
         <v>3.5369822024124926</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="B12" s="73">
+      <c r="B12" s="70">
         <v>11.924599131227543</v>
       </c>
-      <c r="C12" s="73">
+      <c r="C12" s="70">
         <v>12.767161131463576</v>
       </c>
-      <c r="D12" s="74">
+      <c r="D12" s="71">
         <v>11.13430502038309</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="72" t="s">
-        <v>174</v>
-      </c>
-      <c r="B13" s="77">
+      <c r="A13" s="69" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" s="74">
         <f>'Balance Sheet'!C28/'Balance Sheet'!C40</f>
         <v>0.24527982389298111</v>
       </c>
-      <c r="C13" s="77">
+      <c r="C13" s="74">
         <f>'Balance Sheet'!D28/'Balance Sheet'!D40</f>
         <v>0.21458216936706839</v>
       </c>
-      <c r="D13" s="77">
+      <c r="D13" s="74">
         <f>'Balance Sheet'!E28/'Balance Sheet'!E40</f>
         <v>0.3140407807429651</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L14" s="57" t="s">
+      <c r="L14" s="54" t="s">
         <v>164</v>
       </c>
       <c r="M14" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="N14"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="L15" s="37" t="s">
+      <c r="A15" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="L15" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="M15" s="56"/>
+      <c r="M15" s="53"/>
       <c r="N15"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L16" s="37" t="s">
+      <c r="L16" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="M16" s="56">
+      <c r="M16" s="53">
         <v>6.7573164606043512E-2</v>
       </c>
       <c r="N16"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="L17" s="37" t="s">
+      <c r="L17" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="M17" s="56">
+      <c r="M17" s="53">
         <v>5.0200173345990341E-2</v>
       </c>
       <c r="N17"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="86" t="s">
+      <c r="A18" s="83" t="s">
         <v>167</v>
       </c>
-      <c r="B18" s="87" t="s">
+      <c r="B18" s="84" t="s">
         <v>155</v>
       </c>
-      <c r="C18" s="88" t="s">
+      <c r="C18" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="D18" s="87" t="s">
+      <c r="D18" s="84" t="s">
         <v>157</v>
       </c>
-      <c r="E18" s="88" t="s">
+      <c r="E18" s="85" t="s">
         <v>158</v>
       </c>
-      <c r="F18" s="87" t="s">
+      <c r="F18" s="84" t="s">
         <v>106</v>
       </c>
-      <c r="G18" s="88" t="s">
+      <c r="G18" s="85" t="s">
         <v>159</v>
       </c>
-      <c r="H18" s="89" t="s">
+      <c r="H18" s="86" t="s">
         <v>160</v>
       </c>
-      <c r="L18" s="37" t="s">
+      <c r="L18" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="M18" s="56"/>
+      <c r="M18" s="53"/>
       <c r="N18"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="58" t="s">
+      <c r="A19" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="B19" s="78">
+      <c r="B19" s="75">
         <f>'Income Statement'!B6</f>
         <v>254453</v>
       </c>
-      <c r="C19" s="79">
+      <c r="C19" s="76">
         <f>'Adjusted Income Statement'!B7</f>
         <v>32095</v>
       </c>
-      <c r="D19" s="78">
+      <c r="D19" s="75">
         <f>'Adjusted Income Statement'!B9</f>
         <v>9285</v>
       </c>
-      <c r="E19" s="79">
+      <c r="E19" s="76">
         <f>'Adjusted Income Statement'!B14</f>
         <v>7367</v>
       </c>
-      <c r="F19" s="82">
+      <c r="F19" s="79">
         <f>B3</f>
         <v>0.96565531242950597</v>
       </c>
-      <c r="G19" s="83">
+      <c r="G19" s="80">
         <f>B9</f>
         <v>1.9561849123698247</v>
       </c>
-      <c r="H19" s="75">
+      <c r="H19" s="72">
         <f>B6</f>
         <v>2.8952301603832536E-2</v>
       </c>
@@ -13221,34 +12892,34 @@
       <c r="N19"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="B20" s="78">
+      <c r="B20" s="75">
         <f>'Income Statement'!C6</f>
         <v>242290</v>
       </c>
-      <c r="C20" s="79">
+      <c r="C20" s="76">
         <f>'Adjusted Income Statement'!C7</f>
         <v>29704</v>
       </c>
-      <c r="D20" s="78">
+      <c r="D20" s="75">
         <f>'Adjusted Income Statement'!C9</f>
         <v>8114</v>
       </c>
-      <c r="E20" s="79">
+      <c r="E20" s="76">
         <f>'Adjusted Income Statement'!C14</f>
         <v>6292</v>
       </c>
-      <c r="F20" s="82">
+      <c r="F20" s="79">
         <f>C3</f>
         <v>1.0683679242473871</v>
       </c>
-      <c r="G20" s="83">
+      <c r="G20" s="80">
         <f>C9</f>
         <v>1.7533721765504031</v>
       </c>
-      <c r="H20" s="75">
+      <c r="H20" s="72">
         <f>C6</f>
         <v>2.5968880267448098E-2</v>
       </c>
@@ -13257,34 +12928,34 @@
       <c r="N20"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="B21" s="78">
+      <c r="B21" s="75">
         <f>'Income Statement'!D6</f>
         <v>226954</v>
       </c>
-      <c r="C21" s="80">
+      <c r="C21" s="77">
         <f>'Adjusted Income Statement'!D7</f>
         <v>27572</v>
       </c>
-      <c r="D21" s="81">
+      <c r="D21" s="78">
         <f>'Adjusted Income Statement'!D9</f>
         <v>7793</v>
       </c>
-      <c r="E21" s="79">
+      <c r="E21" s="76">
         <f>'Adjusted Income Statement'!D14</f>
         <v>5915</v>
       </c>
-      <c r="F21" s="84">
+      <c r="F21" s="81">
         <f>D3</f>
         <v>1.0218138633664604</v>
       </c>
-      <c r="G21" s="85">
+      <c r="G21" s="82">
         <f>D9</f>
         <v>2.1077638397830194</v>
       </c>
-      <c r="H21" s="76">
+      <c r="H21" s="73">
         <f>D6</f>
         <v>2.6062550120288693E-2</v>
       </c>
@@ -13307,7 +12978,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B24"/>
       <c r="C24"/>
@@ -13328,8 +12999,8 @@
       <c r="C25" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="27" t="s">
-        <v>184</v>
+      <c r="D25" s="26" t="s">
+        <v>180</v>
       </c>
       <c r="F25"/>
       <c r="G25"/>
@@ -13344,15 +13015,15 @@
         <f>A19</f>
         <v>2024</v>
       </c>
-      <c r="B26" s="54">
+      <c r="B26" s="45">
         <f>'Balance Sheet'!C31</f>
         <v>46209</v>
       </c>
-      <c r="C26" s="54">
+      <c r="C26" s="45">
         <f>'Balance Sheet'!C40</f>
         <v>23622</v>
       </c>
-      <c r="D26" s="27">
+      <c r="D26" s="26">
         <f>debt_to_equity_structure[[#This Row],[TOTAL LIABILITIES]]/debt_to_equity_structure[[#This Row],[TOTAL EQUITY]]</f>
         <v>1.9561849123698247</v>
       </c>
@@ -13360,7 +13031,7 @@
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26"/>
-      <c r="J26" s="57" t="s">
+      <c r="J26" s="54" t="s">
         <v>166</v>
       </c>
       <c r="K26"/>
@@ -13373,33 +13044,29 @@
         <f t="shared" ref="A27:A28" si="0">A20</f>
         <v>2023</v>
       </c>
-      <c r="B27" s="54">
+      <c r="B27" s="45">
         <f>'Balance Sheet'!D31</f>
         <v>43936</v>
       </c>
-      <c r="C27" s="54">
+      <c r="C27" s="45">
         <f>'Balance Sheet'!D40</f>
         <v>25058</v>
       </c>
-      <c r="D27" s="27">
+      <c r="D27" s="26">
         <f>debt_to_equity_structure[[#This Row],[TOTAL LIABILITIES]]/debt_to_equity_structure[[#This Row],[TOTAL EQUITY]]</f>
         <v>1.7533721765504031</v>
       </c>
       <c r="F27"/>
       <c r="G27"/>
       <c r="H27"/>
-      <c r="I27" s="57" t="s">
-        <v>182</v>
+      <c r="I27" s="54" t="s">
+        <v>178</v>
       </c>
       <c r="J27" t="s">
-        <v>163</v>
-      </c>
-      <c r="K27" t="s">
-        <v>162</v>
-      </c>
-      <c r="L27" t="s">
         <v>161</v>
       </c>
+      <c r="K27"/>
+      <c r="L27"/>
       <c r="M27"/>
       <c r="N27"/>
     </row>
@@ -13408,15 +13075,15 @@
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="B28" s="54">
+      <c r="B28" s="45">
         <f>'Balance Sheet'!E31</f>
         <v>43519</v>
       </c>
-      <c r="C28" s="54">
+      <c r="C28" s="45">
         <f>'Balance Sheet'!E40</f>
         <v>20647</v>
       </c>
-      <c r="D28" s="27">
+      <c r="D28" s="26">
         <f>debt_to_equity_structure[[#This Row],[TOTAL LIABILITIES]]/debt_to_equity_structure[[#This Row],[TOTAL EQUITY]]</f>
         <v>2.1077638397830194</v>
       </c>
@@ -13424,17 +13091,13 @@
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28" t="s">
-        <v>181</v>
-      </c>
-      <c r="J28" s="54">
-        <v>43519</v>
-      </c>
-      <c r="K28" s="54">
-        <v>43936</v>
-      </c>
-      <c r="L28" s="54">
+        <v>177</v>
+      </c>
+      <c r="J28" s="45">
         <v>46209</v>
       </c>
+      <c r="K28"/>
+      <c r="L28"/>
       <c r="M28"/>
       <c r="N28"/>
     </row>
@@ -13446,17 +13109,13 @@
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29" t="s">
-        <v>180</v>
-      </c>
-      <c r="J29" s="54">
-        <v>20647</v>
-      </c>
-      <c r="K29" s="54">
-        <v>25058</v>
-      </c>
-      <c r="L29" s="54">
+        <v>176</v>
+      </c>
+      <c r="J29" s="45">
         <v>23622</v>
       </c>
+      <c r="K29"/>
+      <c r="L29"/>
       <c r="M29"/>
       <c r="N29"/>
     </row>
@@ -13476,7 +13135,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -13491,16 +13150,16 @@
       <c r="N31"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="B32" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="D32" s="27" t="s">
+      <c r="B32" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="D32" s="26" t="s">
         <v>155</v>
       </c>
       <c r="F32"/>
@@ -13509,7 +13168,7 @@
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
-      <c r="N32" s="57" t="s">
+      <c r="N32" s="54" t="s">
         <v>167</v>
       </c>
       <c r="O32" t="s">
@@ -13517,18 +13176,18 @@
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="27">
+      <c r="A33" s="26">
         <v>2024</v>
       </c>
-      <c r="B33" s="94">
+      <c r="B33" s="91">
         <f>'Income Statement'!B4</f>
         <v>249625</v>
       </c>
-      <c r="C33" s="94">
+      <c r="C33" s="91">
         <f>'Income Statement'!B5</f>
         <v>4828</v>
       </c>
-      <c r="D33" s="94">
+      <c r="D33" s="91">
         <f>SUM(B33:C33)</f>
         <v>254453</v>
       </c>
@@ -13536,26 +13195,26 @@
       <c r="G33"/>
       <c r="J33"/>
       <c r="K33"/>
-      <c r="N33" s="96" t="s">
-        <v>163</v>
-      </c>
-      <c r="O33" s="92">
-        <v>2.1077638397830194</v>
+      <c r="N33" s="93" t="s">
+        <v>161</v>
+      </c>
+      <c r="O33" s="89">
+        <v>1.9561849123698247</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="27">
+      <c r="A34" s="26">
         <v>2023</v>
       </c>
-      <c r="B34" s="94">
+      <c r="B34" s="91">
         <f>'Income Statement'!C4</f>
         <v>237710</v>
       </c>
-      <c r="C34" s="94">
+      <c r="C34" s="91">
         <f>'Income Statement'!C5</f>
         <v>4580</v>
       </c>
-      <c r="D34" s="94">
+      <c r="D34" s="91">
         <f t="shared" ref="D34:D35" si="1">SUM(B34:C34)</f>
         <v>242290</v>
       </c>
@@ -13563,26 +13222,22 @@
       <c r="G34"/>
       <c r="J34"/>
       <c r="K34"/>
-      <c r="N34" s="96" t="s">
-        <v>162</v>
-      </c>
-      <c r="O34" s="92">
-        <v>1.7533721765504031</v>
-      </c>
+      <c r="N34"/>
+      <c r="O34"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="27">
+      <c r="A35" s="26">
         <v>2022</v>
       </c>
-      <c r="B35" s="94">
+      <c r="B35" s="91">
         <f>'Income Statement'!D4</f>
         <v>222730</v>
       </c>
-      <c r="C35" s="94">
+      <c r="C35" s="91">
         <f>'Income Statement'!D5</f>
         <v>4224</v>
       </c>
-      <c r="D35" s="94">
+      <c r="D35" s="91">
         <f t="shared" si="1"/>
         <v>226954</v>
       </c>
@@ -13590,12 +13245,8 @@
       <c r="G35"/>
       <c r="J35"/>
       <c r="K35"/>
-      <c r="N35" s="96" t="s">
-        <v>161</v>
-      </c>
-      <c r="O35" s="92">
-        <v>1.9561849123698247</v>
-      </c>
+      <c r="N35"/>
+      <c r="O35"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36"/>
@@ -13607,11 +13258,11 @@
       <c r="K36"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="57" t="s">
+      <c r="A37" s="54" t="s">
         <v>164</v>
       </c>
       <c r="B37" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C37"/>
       <c r="D37"/>
@@ -13624,10 +13275,10 @@
       <c r="K37"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="37">
+      <c r="A38" s="36">
         <v>2022</v>
       </c>
-      <c r="B38" s="95">
+      <c r="B38" s="92">
         <v>4224</v>
       </c>
       <c r="C38"/>
@@ -13641,10 +13292,10 @@
       <c r="K38"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="37">
+      <c r="A39" s="36">
         <v>2023</v>
       </c>
-      <c r="B39" s="95">
+      <c r="B39" s="92">
         <v>4580</v>
       </c>
       <c r="C39"/>
@@ -13658,10 +13309,10 @@
       <c r="K39"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="37">
+      <c r="A40" s="36">
         <v>2024</v>
       </c>
-      <c r="B40" s="95">
+      <c r="B40" s="92">
         <v>4828</v>
       </c>
       <c r="C40"/>
@@ -13675,10 +13326,10 @@
       <c r="K40"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="37" t="s">
+      <c r="A41" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="B41" s="95">
+      <c r="B41" s="92">
         <v>13632</v>
       </c>
       <c r="C41"/>
@@ -13765,48 +13416,48 @@
       <c r="B52"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="57" t="s">
+      <c r="A53" s="54" t="s">
         <v>164</v>
       </c>
       <c r="B53" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="37">
+      <c r="A54" s="36">
         <v>2022</v>
       </c>
-      <c r="B54" s="95">
+      <c r="B54" s="92">
         <v>222730</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="37">
+      <c r="A55" s="36">
         <v>2023</v>
       </c>
-      <c r="B55" s="95">
+      <c r="B55" s="92">
         <v>237710</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="37">
+      <c r="A56" s="36">
         <v>2024</v>
       </c>
-      <c r="B56" s="95">
+      <c r="B56" s="92">
         <v>249625</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="37" t="s">
+      <c r="A57" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="B57" s="95">
+      <c r="B57" s="92">
         <v>710065</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:D3">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13831,7 +13482,7 @@
   <sheetFormatPr defaultColWidth="40.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" style="43" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
@@ -13848,17 +13499,17 @@
       <c r="A1" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="39" t="s">
         <v>129</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D2" s="6" t="s">
@@ -13872,255 +13523,255 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="41"/>
+      <c r="B3" s="40"/>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="43" t="s">
         <v>132</v>
       </c>
       <c r="C4" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="48">
+      <c r="D4" s="46">
         <f>'Balance Sheet'!C9/'Balance Sheet'!C25</f>
         <v>0.96565531242950597</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="46">
         <f>'Balance Sheet'!D9/'Balance Sheet'!D25</f>
         <v>1.0683679242473871</v>
       </c>
-      <c r="F4" s="48">
+      <c r="F4" s="46">
         <f>'Balance Sheet'!E9/'Balance Sheet'!E25</f>
         <v>1.0218138633664604</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="43" t="s">
         <v>133</v>
       </c>
       <c r="C5" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5" s="47">
         <f>('Balance Sheet'!C4+'Balance Sheet'!C6)/'Balance Sheet'!C25</f>
         <v>0.35605120685765845</v>
       </c>
-      <c r="E5" s="49">
+      <c r="E5" s="47">
         <f>('Balance Sheet'!D4+'Balance Sheet'!D6)/'Balance Sheet'!D25</f>
         <v>0.47598487329899059</v>
       </c>
-      <c r="F5" s="49">
+      <c r="F5" s="47">
         <f>('Balance Sheet'!E4+'Balance Sheet'!E6)/'Balance Sheet'!E25</f>
         <v>0.38889930620663793</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="41"/>
+      <c r="B7" s="40"/>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="43" t="s">
         <v>134</v>
       </c>
       <c r="C8" t="s">
         <v>115</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="44">
         <f xml:space="preserve"> ('Income Statement'!B6 - 'Income Statement'!B10) / 'Income Statement'!B6</f>
         <v>0.1261333134213391</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="44">
         <f xml:space="preserve"> ('Income Statement'!C6 - 'Income Statement'!C10) / 'Income Statement'!C6</f>
         <v>0.12259688802674482</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="44">
         <f xml:space="preserve"> ('Income Statement'!D6 - 'Income Statement'!D10) / 'Income Statement'!D6</f>
         <v>0.12148717361227385</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="43" t="s">
         <v>135</v>
       </c>
       <c r="C9" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="44">
         <f>'Adjusted Income Statement'!B14/'Adjusted Income Statement'!B5</f>
         <v>2.8952301603832536E-2</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="44">
         <f>'Adjusted Income Statement'!C14/'Adjusted Income Statement'!C5</f>
         <v>2.5968880267448098E-2</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="44">
         <f>'Adjusted Income Statement'!D14/'Adjusted Income Statement'!D5</f>
         <v>2.6062550120288693E-2</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="43" t="s">
         <v>136</v>
       </c>
       <c r="C10" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="44">
         <f>'Income Statement'!B22/'Balance Sheet'!C15</f>
         <v>0.1054975583909725</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="44">
         <f>'Income Statement'!C22/'Balance Sheet'!D15</f>
         <v>9.1196335913267826E-2</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="44">
         <f>'Income Statement'!D22/'Balance Sheet'!E15</f>
         <v>9.1076270922295297E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="43" t="s">
         <v>137</v>
       </c>
       <c r="C11" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="44">
         <f>'Income Statement'!B22/'Balance Sheet'!C40</f>
         <v>0.31187029040724751</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="44">
         <f>'Income Statement'!C22/'Balance Sheet'!D40</f>
         <v>0.25109745390693589</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="44">
         <f>'Income Statement'!D22/'Balance Sheet'!E40</f>
         <v>0.28304354143459098</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="43"/>
+      <c r="B13" s="42"/>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="43" t="s">
         <v>138</v>
       </c>
       <c r="C14" t="s">
         <v>121</v>
       </c>
-      <c r="D14" s="49">
+      <c r="D14" s="47">
         <f>'Balance Sheet'!C31/'Balance Sheet'!C40</f>
         <v>1.9561849123698247</v>
       </c>
-      <c r="E14" s="49">
+      <c r="E14" s="47">
         <f>'Balance Sheet'!D31/'Balance Sheet'!D40</f>
         <v>1.7533721765504031</v>
       </c>
-      <c r="F14" s="49">
+      <c r="F14" s="47">
         <f>'Balance Sheet'!E31/'Balance Sheet'!E40</f>
         <v>2.1077638397830194</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="43" t="s">
         <v>139</v>
       </c>
       <c r="C15" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="49">
+      <c r="D15" s="47">
         <f>'Adjusted Income Statement'!B9/-'Adjusted Income Statement'!B10</f>
         <v>54.940828402366861</v>
       </c>
-      <c r="E15" s="49">
+      <c r="E15" s="47">
         <f>'Adjusted Income Statement'!C9/-'Adjusted Income Statement'!C10</f>
         <v>50.712499999999999</v>
       </c>
-      <c r="F15" s="49">
+      <c r="F15" s="47">
         <f>'Adjusted Income Statement'!D9/-'Adjusted Income Statement'!D10</f>
         <v>49.322784810126585</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="43"/>
+      <c r="B17" s="42"/>
     </row>
     <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="43" t="s">
         <v>131</v>
       </c>
       <c r="C18" t="s">
         <v>127</v>
       </c>
-      <c r="D18" s="55">
+      <c r="D18" s="52">
         <f>'Income Statement'!B6/'Balance Sheet'!C15</f>
         <v>3.6438401283097765</v>
       </c>
-      <c r="E18" s="55">
+      <c r="E18" s="52">
         <f>'Income Statement'!C6/'Balance Sheet'!D15</f>
         <v>3.5117546453314783</v>
       </c>
-      <c r="F18" s="55">
+      <c r="F18" s="52">
         <f>'Income Statement'!D6/'Balance Sheet'!E15</f>
         <v>3.5369822024124926</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="41" t="s">
         <v>130</v>
       </c>
       <c r="C19" t="s">
         <v>128</v>
       </c>
-      <c r="D19" s="49">
+      <c r="D19" s="47">
         <f>'Income Statement'!B10/'Balance Sheet'!C7</f>
         <v>11.924599131227543</v>
       </c>
-      <c r="E19" s="49">
+      <c r="E19" s="47">
         <f>'Income Statement'!C10/'Balance Sheet'!D7</f>
         <v>12.767161131463576</v>
       </c>
-      <c r="F19" s="49">
+      <c r="F19" s="47">
         <f>'Income Statement'!D10/'Balance Sheet'!E7</f>
         <v>11.13430502038309</v>
       </c>
@@ -14205,7 +13856,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D4:F4">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14228,40 +13879,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="B4" s="51">
+      <c r="B4" s="49">
         <v>2024</v>
       </c>
-      <c r="C4" s="51">
+      <c r="C4" s="49">
         <v>2023</v>
       </c>
-      <c r="D4" s="51">
+      <c r="D4" s="49">
         <v>2022</v>
       </c>
     </row>
@@ -14269,15 +13920,15 @@
       <c r="A5" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B5" s="101">
+      <c r="B5" s="98">
         <f>'Income Statement'!B6</f>
         <v>254453</v>
       </c>
-      <c r="C5" s="101">
+      <c r="C5" s="98">
         <f>'Income Statement'!C6</f>
         <v>242290</v>
       </c>
-      <c r="D5" s="101">
+      <c r="D5" s="98">
         <f>'Income Statement'!D6</f>
         <v>226954</v>
       </c>
@@ -14286,15 +13937,15 @@
       <c r="A6" t="s">
         <v>145</v>
       </c>
-      <c r="B6" s="53">
+      <c r="B6" s="51">
         <f>'Income Statement'!B10</f>
         <v>222358</v>
       </c>
-      <c r="C6" s="53">
+      <c r="C6" s="51">
         <f>'Income Statement'!C10</f>
         <v>212586</v>
       </c>
-      <c r="D6" s="53">
+      <c r="D6" s="51">
         <f>'Income Statement'!D10</f>
         <v>199382</v>
       </c>
@@ -14303,15 +13954,15 @@
       <c r="A7" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B7" s="100">
+      <c r="B7" s="97">
         <f>B5-B6</f>
         <v>32095</v>
       </c>
-      <c r="C7" s="100">
+      <c r="C7" s="97">
         <f t="shared" ref="C7:D7" si="0">C5-C6</f>
         <v>29704</v>
       </c>
-      <c r="D7" s="100">
+      <c r="D7" s="97">
         <f t="shared" si="0"/>
         <v>27572</v>
       </c>
@@ -14320,15 +13971,15 @@
       <c r="A8" t="s">
         <v>147</v>
       </c>
-      <c r="B8" s="53">
+      <c r="B8" s="51">
         <f>'Income Statement'!B11</f>
         <v>22810</v>
       </c>
-      <c r="C8" s="53">
+      <c r="C8" s="51">
         <f>'Income Statement'!C11</f>
         <v>21590</v>
       </c>
-      <c r="D8" s="53">
+      <c r="D8" s="51">
         <f>'Income Statement'!D11</f>
         <v>19779</v>
       </c>
@@ -14337,15 +13988,15 @@
       <c r="A9" t="s">
         <v>148</v>
       </c>
-      <c r="B9" s="52">
+      <c r="B9" s="50">
         <f>B7-B8</f>
         <v>9285</v>
       </c>
-      <c r="C9" s="52">
+      <c r="C9" s="50">
         <f t="shared" ref="C9:D9" si="1">C7-C8</f>
         <v>8114</v>
       </c>
-      <c r="D9" s="52">
+      <c r="D9" s="50">
         <f t="shared" si="1"/>
         <v>7793</v>
       </c>
@@ -14354,15 +14005,15 @@
       <c r="A10" t="s">
         <v>149</v>
       </c>
-      <c r="B10" s="52">
+      <c r="B10" s="50">
         <f>'Income Statement'!B16</f>
         <v>-169</v>
       </c>
-      <c r="C10" s="52">
+      <c r="C10" s="50">
         <f>'Income Statement'!C16</f>
         <v>-160</v>
       </c>
-      <c r="D10" s="52">
+      <c r="D10" s="50">
         <f>'Income Statement'!D16</f>
         <v>-158</v>
       </c>
@@ -14371,15 +14022,15 @@
       <c r="A11" t="s">
         <v>150</v>
       </c>
-      <c r="B11" s="52">
+      <c r="B11" s="50">
         <f>'Income Statement'!B17</f>
         <v>624</v>
       </c>
-      <c r="C11" s="52">
+      <c r="C11" s="50">
         <f>'Income Statement'!C17</f>
         <v>533</v>
       </c>
-      <c r="D11" s="52">
+      <c r="D11" s="50">
         <f>'Income Statement'!D17</f>
         <v>205</v>
       </c>
@@ -14388,15 +14039,15 @@
       <c r="A12" t="s">
         <v>151</v>
       </c>
-      <c r="B12" s="52">
+      <c r="B12" s="50">
         <f>B9+B10+B11</f>
         <v>9740</v>
       </c>
-      <c r="C12" s="52">
+      <c r="C12" s="50">
         <f t="shared" ref="C12:D12" si="2">C9+C10+C11</f>
         <v>8487</v>
       </c>
-      <c r="D12" s="52">
+      <c r="D12" s="50">
         <f t="shared" si="2"/>
         <v>7840</v>
       </c>
@@ -14405,15 +14056,15 @@
       <c r="A13" t="s">
         <v>152</v>
       </c>
-      <c r="B13" s="52">
+      <c r="B13" s="50">
         <f>-'Income Statement'!B19</f>
         <v>-2373</v>
       </c>
-      <c r="C13" s="52">
+      <c r="C13" s="50">
         <f>-'Income Statement'!C19</f>
         <v>-2195</v>
       </c>
-      <c r="D13" s="52">
+      <c r="D13" s="50">
         <f>-'Income Statement'!D19</f>
         <v>-1925</v>
       </c>
@@ -14422,15 +14073,15 @@
       <c r="A14" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B14" s="101">
+      <c r="B14" s="98">
         <f>B12+B13</f>
         <v>7367</v>
       </c>
-      <c r="C14" s="101">
+      <c r="C14" s="98">
         <f t="shared" ref="C14:D14" si="3">C12+C13</f>
         <v>6292</v>
       </c>
-      <c r="D14" s="101">
+      <c r="D14" s="98">
         <f t="shared" si="3"/>
         <v>5915</v>
       </c>
@@ -14459,20 +14110,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
       <c r="E1" s="23"/>
       <c r="F1" s="23"/>
       <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
       <c r="B2" s="6" t="s">
         <v>23</v>
       </c>
@@ -14498,7 +14148,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1">
@@ -14529,37 +14179,37 @@
       <c r="A6" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="31">
         <f>B4+B5</f>
         <v>254453</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="31">
         <f t="shared" ref="C6:D6" si="0">C4+C5</f>
         <v>242290</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="31">
         <f t="shared" si="0"/>
         <v>226954</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="34">
         <f>(B6-C6)/C6</f>
         <v>5.0200173345990341E-2</v>
       </c>
-      <c r="C7" s="35">
-        <f t="shared" ref="C7:D7" si="1">(C6-D6)/D6</f>
+      <c r="C7" s="34">
+        <f t="shared" ref="C7" si="1">(C6-D6)/D6</f>
         <v>6.7573164606043512E-2</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="35" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -14610,40 +14260,40 @@
       <c r="A12" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="32">
         <f>B6-B10-B11</f>
         <v>9285</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="32">
         <f t="shared" ref="C12:D12" si="2">C6-C10-C11</f>
         <v>8114</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="32">
         <f t="shared" si="2"/>
         <v>7793</v>
       </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="34">
         <f>(B12-C12)/C12</f>
         <v>0.14431846191767317</v>
       </c>
-      <c r="C13" s="35">
-        <f t="shared" ref="C13:D13" si="3">(C12-D12)/D12</f>
+      <c r="C13" s="34">
+        <f t="shared" ref="C13" si="3">(C12-D12)/D12</f>
         <v>4.1190812267419476E-2</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="35" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -14694,13 +14344,13 @@
       <c r="A18" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="30">
+      <c r="B18" s="29">
         <v>9740</v>
       </c>
-      <c r="C18" s="30">
+      <c r="C18" s="29">
         <v>8487</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="29">
         <v>7840</v>
       </c>
     </row>
@@ -14722,13 +14372,13 @@
       <c r="A20" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="30">
+      <c r="B20" s="29">
         <v>7367</v>
       </c>
-      <c r="C20" s="30">
+      <c r="C20" s="29">
         <v>6292</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D20" s="29">
         <v>5915</v>
       </c>
     </row>
@@ -14750,34 +14400,34 @@
       <c r="A22" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="32">
+      <c r="B22" s="31">
         <v>7367</v>
       </c>
-      <c r="C22" s="32">
+      <c r="C22" s="31">
         <v>6292</v>
       </c>
-      <c r="D22" s="32">
+      <c r="D22" s="31">
         <v>5844</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="35">
+      <c r="B23" s="34">
         <f>(B22-C22)/C22</f>
         <v>0.17085187539732993</v>
       </c>
-      <c r="C23" s="35">
-        <f t="shared" ref="C23:D23" si="4">(C22-D22)/D22</f>
+      <c r="C23" s="34">
+        <f t="shared" ref="C23" si="4">(C22-D22)/D22</f>
         <v>7.665982203969883E-2</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="35" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -14917,8 +14567,8 @@
       <c r="A36" s="17"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F24 B7:C7 B13:C13 B23:C23">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="B7:C7 B13:C13 B23:C23 F24">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14944,10 +14594,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="24"/>
       <c r="C1" s="14" t="s">
         <v>23</v>
       </c>
@@ -15433,13 +15082,13 @@
       <c r="A38" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="47">
+      <c r="C38" s="12">
         <v>17619</v>
       </c>
-      <c r="D38" s="47">
+      <c r="D38" s="12">
         <v>19521</v>
       </c>
-      <c r="E38" s="47">
+      <c r="E38" s="12">
         <v>15585</v>
       </c>
     </row>
@@ -15447,11 +15096,11 @@
       <c r="A39" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47">
+      <c r="C39" s="12"/>
+      <c r="D39" s="12">
         <v>0</v>
       </c>
-      <c r="E39" s="47">
+      <c r="E39" s="12">
         <v>5</v>
       </c>
     </row>
@@ -15460,15 +15109,15 @@
         <v>28</v>
       </c>
       <c r="B40" s="10"/>
-      <c r="C40" s="47">
+      <c r="C40" s="12">
         <f>SUM(C34:C38)</f>
         <v>23622</v>
       </c>
-      <c r="D40" s="47">
+      <c r="D40" s="12">
         <f>SUM(D34:D39)</f>
         <v>25058</v>
       </c>
-      <c r="E40" s="47">
+      <c r="E40" s="12">
         <f>SUM(E34:E39)</f>
         <v>20647</v>
       </c>
@@ -15499,16 +15148,12 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="24"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="46"/>
+      <c r="C43" s="45"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15531,17 +15176,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
       <c r="B2" s="6" t="s">
         <v>23</v>
       </c>
@@ -15652,26 +15296,26 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="B10" s="98">
+        <v>182</v>
+      </c>
+      <c r="B10" s="95">
         <f>SUM(B6:B9)</f>
         <v>3379</v>
       </c>
-      <c r="C10" s="98">
+      <c r="C10" s="95">
         <f t="shared" ref="C10:D10" si="0">SUM(C6:C9)</f>
         <v>2768</v>
       </c>
-      <c r="D10" s="98">
+      <c r="D10" s="95">
         <f t="shared" si="0"/>
         <v>2962</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
-      <c r="B11" s="98"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -15733,13 +15377,13 @@
       <c r="A16" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="B16" s="97">
+      <c r="B16" s="94">
         <v>11339</v>
       </c>
-      <c r="C16" s="97">
+      <c r="C16" s="94">
         <v>11068</v>
       </c>
-      <c r="D16" s="97">
+      <c r="D16" s="94">
         <v>7392</v>
       </c>
     </row>
@@ -15817,38 +15461,38 @@
       <c r="A22" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="30">
+      <c r="B22" s="29">
         <v>-4409</v>
       </c>
-      <c r="C22" s="30">
+      <c r="C22" s="29">
         <v>-4972</v>
       </c>
-      <c r="D22" s="30">
+      <c r="D22" s="29">
         <v>-3915</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="B23" s="98">
+        <v>183</v>
+      </c>
+      <c r="B23" s="95">
         <f>SUM(B18:B22)</f>
         <v>-8818</v>
       </c>
-      <c r="C23" s="98">
+      <c r="C23" s="95">
         <f>SUM(C18:C22)</f>
         <v>-9944</v>
       </c>
-      <c r="D23" s="98">
+      <c r="D23" s="95">
         <f>SUM(D18:D22)</f>
         <v>-7830</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
-      <c r="B24" s="98"/>
-      <c r="C24" s="98"/>
-      <c r="D24" s="98"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="95"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
@@ -16006,26 +15650,26 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="B36" s="99">
+        <v>184</v>
+      </c>
+      <c r="B36" s="96">
         <f>SUM(B26:B35)</f>
         <v>-10764</v>
       </c>
-      <c r="C36" s="99">
+      <c r="C36" s="96">
         <f t="shared" ref="C36:D36" si="1">SUM(C26:C35)</f>
         <v>-2614</v>
       </c>
-      <c r="D36" s="99">
+      <c r="D36" s="96">
         <f t="shared" si="1"/>
         <v>-4283</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
-      <c r="B37" s="99"/>
-      <c r="C37" s="99"/>
-      <c r="D37" s="99"/>
+      <c r="B37" s="96"/>
+      <c r="C37" s="96"/>
+      <c r="D37" s="96"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
@@ -16045,16 +15689,16 @@
       <c r="A39" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="30">
+      <c r="B39" s="29">
         <v>-3794</v>
       </c>
-      <c r="C39" s="30">
+      <c r="C39" s="29">
         <v>3497</v>
       </c>
-      <c r="D39" s="30">
+      <c r="D39" s="29">
         <v>-1055</v>
       </c>
-      <c r="G39" s="95"/>
+      <c r="G39" s="92"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
